--- a/i360db/0.9.6/i360db.xlsx
+++ b/i360db/0.9.6/i360db.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\misc\_\#app\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7522048-7C16-4883-B1AD-B66AC607A995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20610" windowHeight="11640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sciences" sheetId="1" r:id="rId1"/>
@@ -16,12 +22,25 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Complements!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sciences!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="114210" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="320">
   <si>
     <t>AppleAppStore</t>
   </si>
@@ -959,37 +978,40 @@
     <t>https://ketabonline.com/books/941</t>
   </si>
   <si>
-    <t>أسباب النزول</t>
-  </si>
-  <si>
-    <t>https://ketabonline.com/books/98294</t>
-  </si>
-  <si>
-    <t>QuranRevelationOccasions</t>
-  </si>
-  <si>
-    <t>التفسير</t>
-  </si>
-  <si>
-    <t>طبعة @ 2023/05/15 م - 1444/10/25 هـ</t>
-  </si>
-  <si>
     <t>0.9.6</t>
   </si>
   <si>
     <t>compass</t>
+  </si>
+  <si>
+    <t>exclamation</t>
+  </si>
+  <si>
+    <t>«التفسير الوسيط للقرآن الكريم»</t>
+  </si>
+  <si>
+    <t>«التفسير الوسيط...» {البقرة:61-74}</t>
+  </si>
+  <si>
+    <t>QuranInterpretationErrata</t>
+  </si>
+  <si>
+    <t>طبعة @ 2023/05/21 م - 1444/11/01 هـ</t>
+  </si>
+  <si>
+    <t>https://app.box.com/s/yl8ow6iu7y1moq0jcb01zfck3kglyra3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1154,6 +1176,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1200,7 +1230,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1232,9 +1262,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1266,6 +1314,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1441,7 +1507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1451,7 +1517,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" customWidth="1"/>
@@ -1461,7 +1527,7 @@
     <col min="10" max="13" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
@@ -1502,7 +1568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1544,7 +1610,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1586,13 +1652,13 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>3</v>
       </c>
       <c r="B4" s="12">
         <f>IF(OR(NOT(ISERROR(SEARCH("archive.org",M4))),NOT(ISERROR(SEARCH("app.box.com",M4))),NOT(ISERROR(SEARCH("islamway.net",M4))),NOT(ISERROR(SEARCH("qurancomplex.gov.sa",M4))),NOT(ISERROR(SEARCH("tanzil.net",M4))),NOT(ISERROR(SEARCH("alsirah.com",M4))),NOT(ISERROR(SEARCH("i36",M4))),(RIGHT(M4,4)=".pdf"),C4=6,C4=8,C4=9),0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="7">
         <v>1</v>
@@ -1607,28 +1673,28 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1670,7 +1736,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1712,7 +1778,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1754,7 +1820,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1796,7 +1862,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1838,7 +1904,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1880,7 +1946,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -1922,7 +1988,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -1964,7 +2030,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -2006,7 +2072,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -2048,7 +2114,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -2090,7 +2156,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -2132,7 +2198,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -2174,7 +2240,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -2216,7 +2282,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -2258,7 +2324,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -2300,7 +2366,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -2342,7 +2408,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -2384,7 +2450,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -2426,7 +2492,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -2468,7 +2534,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -2510,7 +2576,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -2552,7 +2618,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -2594,7 +2660,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -2636,7 +2702,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -2678,7 +2744,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -2720,7 +2786,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -2762,7 +2828,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -2804,7 +2870,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -2846,7 +2912,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -2888,7 +2954,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -2930,7 +2996,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="11">
         <v>35</v>
       </c>
@@ -2972,7 +3038,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -3014,7 +3080,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -3056,7 +3122,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <v>38</v>
       </c>
@@ -3098,7 +3164,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
         <v>39</v>
       </c>
@@ -3140,7 +3206,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
         <v>40</v>
       </c>
@@ -3182,7 +3248,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="11">
         <v>41</v>
       </c>
@@ -3224,7 +3290,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="11">
         <v>42</v>
       </c>
@@ -3266,7 +3332,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="11">
         <v>43</v>
       </c>
@@ -3308,7 +3374,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="11">
         <v>44</v>
       </c>
@@ -3350,7 +3416,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="11">
         <v>45</v>
       </c>
@@ -3392,7 +3458,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="11">
         <v>46</v>
       </c>
@@ -3434,7 +3500,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="11">
         <v>47</v>
       </c>
@@ -3476,7 +3542,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="11">
         <v>48</v>
       </c>
@@ -3518,7 +3584,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="11">
         <v>49</v>
       </c>
@@ -3560,7 +3626,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="11">
         <v>50</v>
       </c>
@@ -3602,7 +3668,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="11">
         <v>51</v>
       </c>
@@ -3629,7 +3695,7 @@
         <v>90</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>60</v>
@@ -3644,7 +3710,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="11">
         <v>52</v>
       </c>
@@ -3686,7 +3752,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="11">
         <v>53</v>
       </c>
@@ -3728,7 +3794,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="11">
         <v>54</v>
       </c>
@@ -3770,7 +3836,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="11">
         <v>55</v>
       </c>
@@ -3812,7 +3878,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="11">
         <v>56</v>
       </c>
@@ -3854,7 +3920,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="11">
         <v>57</v>
       </c>
@@ -3896,7 +3962,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="11">
         <v>58</v>
       </c>
@@ -3938,7 +4004,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="11">
         <v>59</v>
       </c>
@@ -3962,7 +4028,7 @@
         <v>302</v>
       </c>
       <c r="H60" s="17" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>230</v>
@@ -3980,7 +4046,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="11">
         <v>60</v>
       </c>
@@ -4022,7 +4088,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="11">
         <v>61</v>
       </c>
@@ -4064,7 +4130,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="11">
         <v>62</v>
       </c>
@@ -4106,7 +4172,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="11">
         <v>63</v>
       </c>
@@ -4148,7 +4214,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="11">
         <v>64</v>
       </c>
@@ -4190,7 +4256,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="11">
         <v>65</v>
       </c>
@@ -4232,7 +4298,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="11">
         <v>66</v>
       </c>
@@ -4274,7 +4340,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="11">
         <v>67</v>
       </c>
@@ -4316,7 +4382,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="11">
         <v>68</v>
       </c>
@@ -4358,36 +4424,36 @@
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="13">
         <f>SUBTOTAL(2,A2:A69)</f>
         <v>68</v>
       </c>
       <c r="B70" s="14">
         <f>SUBTOTAL(9,B2:B69)</f>
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M69">
-    <sortState ref="A2:L57">
+  <autoFilter ref="A1:M69" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L57">
       <sortCondition ref="A1:A57"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J64" r:id="rId1"/>
-    <hyperlink ref="K64" r:id="rId2"/>
-    <hyperlink ref="L64" r:id="rId3"/>
-    <hyperlink ref="M64" r:id="rId4"/>
-    <hyperlink ref="J5" r:id="rId5"/>
-    <hyperlink ref="K5" r:id="rId6"/>
-    <hyperlink ref="L5" r:id="rId7"/>
-    <hyperlink ref="M5" r:id="rId8"/>
-    <hyperlink ref="J4" r:id="rId9"/>
-    <hyperlink ref="K4" r:id="rId10"/>
-    <hyperlink ref="L4" r:id="rId11"/>
-    <hyperlink ref="M4" r:id="rId12"/>
+    <hyperlink ref="J64" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K64" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="L64" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="M64" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="M5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="L5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="K5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J4" r:id="rId9" xr:uid="{9E639702-10F1-4D59-8C92-6ECC183D1460}"/>
+    <hyperlink ref="K4" r:id="rId10" xr:uid="{85CA416B-C4FA-459D-A58D-8816711B47BA}"/>
+    <hyperlink ref="L4" r:id="rId11" xr:uid="{184C30A4-4F10-4006-AE1E-5057649A69F2}"/>
+    <hyperlink ref="M4" r:id="rId12" xr:uid="{70C74EA8-8330-41AF-A359-810469D25A7E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -4400,7 +4466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4408,13 +4474,13 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="24.7109375" customWidth="1"/>
     <col min="6" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>285</v>
       </c>
@@ -4437,7 +4503,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>288</v>
       </c>
@@ -4454,21 +4520,21 @@
         <v>286</v>
       </c>
       <c r="F2" s="16">
-        <f ca="1">DATEVALUE(MID(Sciences!$H60,(FIND("طبعة @ ",Sciences!$H60)+7),10))</f>
-        <v>45061</v>
+        <f>DATEVALUE(MID(Sciences!$H60,(FIND("طبعة @ ",Sciences!$H60)+7),10))</f>
+        <v>45067</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>289</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="18" t="s">
         <v>308</v>
       </c>
@@ -4476,18 +4542,18 @@
         <v>308</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C6" s="18" t="s">
         <v>309</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G2"/>
+  <autoFilter ref="A1:G2" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="B2" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>

--- a/i360db/0.9.6/i360db.xlsx
+++ b/i360db/0.9.6/i360db.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\misc\_\#app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Files\My Programs\موسوعات إسلامية_عربية\_Sprints\AppGyver\_db\i360db\0.9.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7522048-7C16-4883-B1AD-B66AC607A995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E756A7-1F15-49BB-98C9-450891A78291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -627,9 +627,6 @@
     <t>Konnasha</t>
   </si>
   <si>
-    <t>pencil</t>
-  </si>
-  <si>
     <t>calendar</t>
   </si>
   <si>
@@ -1000,6 +997,9 @@
   </si>
   <si>
     <t>https://app.box.com/s/yl8ow6iu7y1moq0jcb01zfck3kglyra3</t>
+  </si>
+  <si>
+    <t>pencil-square-o</t>
   </si>
 </sst>
 </file>
@@ -1532,7 +1532,7 @@
         <v>93</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>86</v>
@@ -1580,10 +1580,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F2" s="9">
         <v>1.1299999999999999</v>
@@ -1622,19 +1622,19 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F3" s="9">
         <v>1.01</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>4</v>
@@ -1664,34 +1664,34 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F4" s="9">
         <v>1.1200000000000001</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -1706,34 +1706,34 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F5" s="9">
         <v>1.1100000000000001</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -1748,22 +1748,22 @@
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F6" s="9">
         <v>9.02</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>83</v>
@@ -1775,7 +1775,7 @@
         <v>85</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -1850,16 +1850,16 @@
         <v>15</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -1874,10 +1874,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F9" s="9">
         <v>2.0699999999999998</v>
@@ -1916,16 +1916,16 @@
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F10" s="9">
         <v>2.0099999999999998</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>94</v>
@@ -1958,34 +1958,34 @@
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F11" s="9">
         <v>8.0299999999999994</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -2000,10 +2000,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>238</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>239</v>
       </c>
       <c r="F12" s="9">
         <v>7.03</v>
@@ -2042,10 +2042,10 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F13" s="9">
         <v>8.07</v>
@@ -2057,7 +2057,7 @@
         <v>55</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>56</v>
@@ -2084,34 +2084,34 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F14" s="9">
         <v>8.08</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>226</v>
-      </c>
       <c r="M14" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -2126,10 +2126,10 @@
         <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F15" s="9">
         <v>8.09</v>
@@ -2141,7 +2141,7 @@
         <v>190</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>195</v>
+        <v>319</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>189</v>
@@ -2168,10 +2168,10 @@
         <v>7</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>238</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>239</v>
       </c>
       <c r="F16" s="9">
         <v>7.07</v>
@@ -2210,34 +2210,34 @@
         <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F17" s="9">
         <v>8.0399999999999991</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -2252,34 +2252,34 @@
         <v>7</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>238</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>239</v>
       </c>
       <c r="F18" s="9">
         <v>7.06</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>234</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -2294,10 +2294,10 @@
         <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F19" s="9">
         <v>8.0500000000000007</v>
@@ -2306,7 +2306,7 @@
         <v>82</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>77</v>
@@ -2336,10 +2336,10 @@
         <v>7</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>238</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>239</v>
       </c>
       <c r="F20" s="9">
         <v>7.05</v>
@@ -2348,7 +2348,7 @@
         <v>99</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>15</v>
@@ -2378,10 +2378,10 @@
         <v>7</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>238</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>239</v>
       </c>
       <c r="F21" s="9">
         <v>7.02</v>
@@ -2405,7 +2405,7 @@
         <v>54</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -2429,10 +2429,10 @@
         <v>4.01</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>4</v>
@@ -2441,13 +2441,13 @@
         <v>32</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -2462,10 +2462,10 @@
         <v>5</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F23" s="9">
         <v>5.01</v>
@@ -2516,22 +2516,22 @@
         <v>76</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -2588,10 +2588,10 @@
         <v>7</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>238</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>239</v>
       </c>
       <c r="F26" s="9">
         <v>7.01</v>
@@ -2615,7 +2615,7 @@
         <v>48</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -2630,19 +2630,19 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F27" s="9">
         <v>1.02</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>4</v>
@@ -2672,10 +2672,10 @@
         <v>2</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F28" s="9">
         <v>2.0499999999999998</v>
@@ -2687,7 +2687,7 @@
         <v>21</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>19</v>
@@ -2723,25 +2723,25 @@
         <v>4.05</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>107</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -2771,7 +2771,7 @@
         <v>164</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J30" s="8" t="s">
         <v>131</v>
@@ -2840,10 +2840,10 @@
         <v>5</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F32" s="9">
         <v>5.0199999999999996</v>
@@ -2858,16 +2858,16 @@
         <v>15</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -2897,7 +2897,7 @@
         <v>152</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>113</v>
@@ -2939,7 +2939,7 @@
         <v>179</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J34" s="8" t="s">
         <v>142</v>
@@ -3023,7 +3023,7 @@
         <v>162</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J36" s="8" t="s">
         <v>163</v>
@@ -3107,7 +3107,7 @@
         <v>144</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J38" s="8" t="s">
         <v>117</v>
@@ -3191,7 +3191,7 @@
         <v>157</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J40" s="8" t="s">
         <v>127</v>
@@ -3233,7 +3233,7 @@
         <v>151</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>118</v>
@@ -3275,7 +3275,7 @@
         <v>155</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J42" s="8" t="s">
         <v>126</v>
@@ -3401,7 +3401,7 @@
         <v>161</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J45" s="8" t="s">
         <v>124</v>
@@ -3569,7 +3569,7 @@
         <v>177</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J49" s="8" t="s">
         <v>141</v>
@@ -3611,7 +3611,7 @@
         <v>147</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J50" s="8" t="s">
         <v>122</v>
@@ -3638,22 +3638,22 @@
         <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F51" s="9">
         <v>8.02</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>91</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>65</v>
@@ -3680,10 +3680,10 @@
         <v>8</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F52" s="9">
         <v>8.01</v>
@@ -3695,7 +3695,7 @@
         <v>90</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>60</v>
@@ -3731,25 +3731,25 @@
         <v>4.03</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J53" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="M53" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="M53" s="3" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
@@ -3773,25 +3773,25 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
@@ -3824,16 +3824,16 @@
         <v>107</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
@@ -3848,10 +3848,10 @@
         <v>5</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F56" s="9">
         <v>5.03</v>
@@ -3866,16 +3866,16 @@
         <v>107</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
@@ -3890,10 +3890,10 @@
         <v>7</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E57" s="5" t="s">
         <v>238</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>239</v>
       </c>
       <c r="F57" s="9">
         <v>7.04</v>
@@ -3902,7 +3902,7 @@
         <v>43</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>15</v>
@@ -3932,10 +3932,10 @@
         <v>8</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F58" s="9">
         <v>8.06</v>
@@ -3944,10 +3944,10 @@
         <v>68</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>69</v>
@@ -4016,34 +4016,34 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F60" s="9">
         <v>9.0399999999999991</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H60" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
@@ -4058,34 +4058,34 @@
         <v>2</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F61" s="9">
         <v>2.0299999999999998</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
@@ -4100,34 +4100,34 @@
         <v>2</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F62" s="9">
         <v>2.02</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
@@ -4142,19 +4142,19 @@
         <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F63" s="9">
         <v>1.03</v>
       </c>
       <c r="G63" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H63" s="5" t="s">
         <v>200</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>201</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>4</v>
@@ -4184,34 +4184,34 @@
         <v>2</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F64" s="9">
         <v>2.06</v>
       </c>
       <c r="G64" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H64" s="5" t="s">
         <v>300</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>301</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
@@ -4235,25 +4235,25 @@
         <v>3.02</v>
       </c>
       <c r="G65" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H65" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="H65" s="5" t="s">
-        <v>266</v>
-      </c>
       <c r="I65" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="J65" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="J65" s="3" t="s">
-        <v>264</v>
-      </c>
       <c r="K65" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
@@ -4268,34 +4268,34 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F66" s="9">
         <v>9.01</v>
       </c>
       <c r="G66" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H66" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="H66" s="5" t="s">
+      <c r="I66" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I66" s="2" t="s">
-        <v>275</v>
-      </c>
       <c r="J66" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
@@ -4310,34 +4310,34 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F67" s="9">
         <v>9.0299999999999994</v>
       </c>
       <c r="G67" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H67" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="H67" s="5" t="s">
+      <c r="I67" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="J67" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="I67" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>278</v>
-      </c>
       <c r="K67" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
@@ -4352,34 +4352,34 @@
         <v>2</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F68" s="9">
         <v>2.04</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
@@ -4394,10 +4394,10 @@
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F69" s="9">
         <v>1.1399999999999999</v>
@@ -4482,69 +4482,69 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>306</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F2" s="16">
         <f>DATEVALUE(MID(Sciences!$H60,(FIND("طبعة @ ",Sciences!$H60)+7),10))</f>
         <v>45067</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C6" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>

--- a/i360db/0.9.6/i360db.xlsx
+++ b/i360db/0.9.6/i360db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Files\My Programs\موسوعات إسلامية_عربية\_Sprints\AppGyver\_db\i360db\0.9.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E756A7-1F15-49BB-98C9-450891A78291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EB3F75-7252-4021-B226-B70506819C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -987,19 +987,19 @@
     <t>«التفسير الوسيط للقرآن الكريم»</t>
   </si>
   <si>
-    <t>«التفسير الوسيط...» {البقرة:61-74}</t>
-  </si>
-  <si>
     <t>QuranInterpretationErrata</t>
   </si>
   <si>
-    <t>طبعة @ 2023/05/21 م - 1444/11/01 هـ</t>
-  </si>
-  <si>
-    <t>https://app.box.com/s/yl8ow6iu7y1moq0jcb01zfck3kglyra3</t>
-  </si>
-  <si>
     <t>pencil-square-o</t>
+  </si>
+  <si>
+    <t>https://app.box.com/s/gxq4g6slg6rwwont1i1ix5w9w9xp3z6i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	«التفسير الوسيط...» {البقرة:61-74}</t>
+  </si>
+  <si>
+    <t>طبعة @ 2023/05/23 م - 1444/11/03 هـ</t>
   </si>
 </sst>
 </file>
@@ -1673,25 +1673,25 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>313</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -2141,7 +2141,7 @@
         <v>190</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>189</v>
@@ -4028,7 +4028,7 @@
         <v>301</v>
       </c>
       <c r="H60" s="17" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>229</v>
@@ -4451,9 +4451,9 @@
     <hyperlink ref="K5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="J5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="J4" r:id="rId9" xr:uid="{9E639702-10F1-4D59-8C92-6ECC183D1460}"/>
-    <hyperlink ref="K4" r:id="rId10" xr:uid="{85CA416B-C4FA-459D-A58D-8816711B47BA}"/>
-    <hyperlink ref="L4" r:id="rId11" xr:uid="{184C30A4-4F10-4006-AE1E-5057649A69F2}"/>
-    <hyperlink ref="M4" r:id="rId12" xr:uid="{70C74EA8-8330-41AF-A359-810469D25A7E}"/>
+    <hyperlink ref="K4" r:id="rId10" xr:uid="{9BE7CF38-2C35-461C-B4E9-10FF83C2AF2B}"/>
+    <hyperlink ref="L4" r:id="rId11" xr:uid="{3BEE5D21-14EE-44E4-85AB-8BDBCC78C6BB}"/>
+    <hyperlink ref="M4" r:id="rId12" xr:uid="{666786E1-2508-4CDB-A0A1-7772E28DF314}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="F2" s="16">
         <f>DATEVALUE(MID(Sciences!$H60,(FIND("طبعة @ ",Sciences!$H60)+7),10))</f>
-        <v>45067</v>
+        <v>45069</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>311</v>

--- a/i360db/0.9.6/i360db.xlsx
+++ b/i360db/0.9.6/i360db.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Files\My Programs\موسوعات إسلامية_عربية\_Sprints\AppGyver\_db\i360db\0.9.6\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EB3F75-7252-4021-B226-B70506819C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20610" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sciences" sheetId="1" r:id="rId1"/>
@@ -22,20 +16,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Complements!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sciences!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="114210" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -993,25 +974,25 @@
     <t>pencil-square-o</t>
   </si>
   <si>
-    <t>https://app.box.com/s/gxq4g6slg6rwwont1i1ix5w9w9xp3z6i</t>
-  </si>
-  <si>
     <t xml:space="preserve">	«التفسير الوسيط...» {البقرة:61-74}</t>
   </si>
   <si>
-    <t>طبعة @ 2023/05/23 م - 1444/11/03 هـ</t>
+    <t>https://app.box.com/s/u6iirgd1dfa7rb2h7ev2ueg71lt5vo9v</t>
+  </si>
+  <si>
+    <t>طبعة @ 2023/05/24 م - 1444/11/04 هـ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1176,14 +1157,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1230,7 +1203,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1262,27 +1235,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1314,24 +1269,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1507,7 +1444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1517,7 +1454,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" customWidth="1"/>
@@ -1527,7 +1464,7 @@
     <col min="10" max="13" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
@@ -1568,7 +1505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1610,7 +1547,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1652,7 +1589,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1676,25 +1613,25 @@
         <v>315</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>313</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1736,7 +1673,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1778,7 +1715,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1820,7 +1757,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1862,7 +1799,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1904,7 +1841,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1946,7 +1883,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -1988,7 +1925,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -2030,7 +1967,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -2072,7 +2009,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -2114,7 +2051,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -2156,7 +2093,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -2198,7 +2135,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -2240,7 +2177,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -2282,7 +2219,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -2324,7 +2261,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -2366,7 +2303,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -2408,7 +2345,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -2450,7 +2387,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -2492,7 +2429,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -2534,7 +2471,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -2576,7 +2513,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -2618,7 +2555,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -2660,7 +2597,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -2702,7 +2639,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -2744,7 +2681,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -2786,7 +2723,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -2828,7 +2765,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -2870,7 +2807,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -2912,7 +2849,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -2954,7 +2891,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -2996,7 +2933,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" s="11">
         <v>35</v>
       </c>
@@ -3038,7 +2975,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -3080,7 +3017,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -3122,7 +3059,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" s="11">
         <v>38</v>
       </c>
@@ -3164,7 +3101,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13">
       <c r="A40" s="11">
         <v>39</v>
       </c>
@@ -3206,7 +3143,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13">
       <c r="A41" s="11">
         <v>40</v>
       </c>
@@ -3248,7 +3185,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42" s="11">
         <v>41</v>
       </c>
@@ -3290,7 +3227,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13">
       <c r="A43" s="11">
         <v>42</v>
       </c>
@@ -3332,7 +3269,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13">
       <c r="A44" s="11">
         <v>43</v>
       </c>
@@ -3374,7 +3311,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13">
       <c r="A45" s="11">
         <v>44</v>
       </c>
@@ -3416,7 +3353,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13">
       <c r="A46" s="11">
         <v>45</v>
       </c>
@@ -3458,7 +3395,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13">
       <c r="A47" s="11">
         <v>46</v>
       </c>
@@ -3500,7 +3437,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13">
       <c r="A48" s="11">
         <v>47</v>
       </c>
@@ -3542,7 +3479,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13">
       <c r="A49" s="11">
         <v>48</v>
       </c>
@@ -3584,7 +3521,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13">
       <c r="A50" s="11">
         <v>49</v>
       </c>
@@ -3626,7 +3563,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13">
       <c r="A51" s="11">
         <v>50</v>
       </c>
@@ -3668,7 +3605,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13">
       <c r="A52" s="11">
         <v>51</v>
       </c>
@@ -3710,7 +3647,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13">
       <c r="A53" s="11">
         <v>52</v>
       </c>
@@ -3752,7 +3689,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13">
       <c r="A54" s="11">
         <v>53</v>
       </c>
@@ -3794,7 +3731,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13">
       <c r="A55" s="11">
         <v>54</v>
       </c>
@@ -3836,7 +3773,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13">
       <c r="A56" s="11">
         <v>55</v>
       </c>
@@ -3878,7 +3815,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13">
       <c r="A57" s="11">
         <v>56</v>
       </c>
@@ -3920,7 +3857,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13">
       <c r="A58" s="11">
         <v>57</v>
       </c>
@@ -3962,7 +3899,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13">
       <c r="A59" s="11">
         <v>58</v>
       </c>
@@ -4004,7 +3941,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13">
       <c r="A60" s="11">
         <v>59</v>
       </c>
@@ -4046,7 +3983,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13">
       <c r="A61" s="11">
         <v>60</v>
       </c>
@@ -4088,7 +4025,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13">
       <c r="A62" s="11">
         <v>61</v>
       </c>
@@ -4130,7 +4067,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13">
       <c r="A63" s="11">
         <v>62</v>
       </c>
@@ -4172,7 +4109,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13">
       <c r="A64" s="11">
         <v>63</v>
       </c>
@@ -4214,7 +4151,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13">
       <c r="A65" s="11">
         <v>64</v>
       </c>
@@ -4256,7 +4193,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13">
       <c r="A66" s="11">
         <v>65</v>
       </c>
@@ -4298,7 +4235,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13">
       <c r="A67" s="11">
         <v>66</v>
       </c>
@@ -4340,7 +4277,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13">
       <c r="A68" s="11">
         <v>67</v>
       </c>
@@ -4382,7 +4319,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13">
       <c r="A69" s="11">
         <v>68</v>
       </c>
@@ -4424,7 +4361,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13">
       <c r="A70" s="13">
         <f>SUBTOTAL(2,A2:A69)</f>
         <v>68</v>
@@ -4435,25 +4372,25 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M69" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L57">
+  <autoFilter ref="A1:M69">
+    <sortState ref="A2:L57">
       <sortCondition ref="A1:A57"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J64" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K64" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="L64" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="M64" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="M5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="L5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="K5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="J5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="J4" r:id="rId9" xr:uid="{9E639702-10F1-4D59-8C92-6ECC183D1460}"/>
-    <hyperlink ref="K4" r:id="rId10" xr:uid="{9BE7CF38-2C35-461C-B4E9-10FF83C2AF2B}"/>
-    <hyperlink ref="L4" r:id="rId11" xr:uid="{3BEE5D21-14EE-44E4-85AB-8BDBCC78C6BB}"/>
-    <hyperlink ref="M4" r:id="rId12" xr:uid="{666786E1-2508-4CDB-A0A1-7772E28DF314}"/>
+    <hyperlink ref="J64" r:id="rId1"/>
+    <hyperlink ref="K64" r:id="rId2"/>
+    <hyperlink ref="L64" r:id="rId3"/>
+    <hyperlink ref="M64" r:id="rId4"/>
+    <hyperlink ref="M5" r:id="rId5"/>
+    <hyperlink ref="L5" r:id="rId6"/>
+    <hyperlink ref="K5" r:id="rId7"/>
+    <hyperlink ref="J5" r:id="rId8"/>
+    <hyperlink ref="J4" r:id="rId9"/>
+    <hyperlink ref="K4" r:id="rId10"/>
+    <hyperlink ref="L4" r:id="rId11"/>
+    <hyperlink ref="M4" r:id="rId12"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -4466,7 +4403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4474,13 +4411,13 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="5" width="24.7109375" customWidth="1"/>
     <col min="6" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>284</v>
       </c>
@@ -4503,7 +4440,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>287</v>
       </c>
@@ -4520,21 +4457,21 @@
         <v>285</v>
       </c>
       <c r="F2" s="16">
-        <f>DATEVALUE(MID(Sciences!$H60,(FIND("طبعة @ ",Sciences!$H60)+7),10))</f>
-        <v>45069</v>
+        <f ca="1">DATEVALUE(MID(Sciences!$H60,(FIND("طبعة @ ",Sciences!$H60)+7),10))</f>
+        <v>45070</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="15" t="s">
         <v>288</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="B5" s="18" t="s">
         <v>307</v>
       </c>
@@ -4542,18 +4479,18 @@
         <v>307</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="C6" s="18" t="s">
         <v>308</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G2" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:G2"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId3"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>

--- a/i360db/0.9.6/i360db.xlsx
+++ b/i360db/0.9.6/i360db.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Files\My Programs\موسوعات إسلامية_عربية\_Sprints\AppGyver\_db\i360db\0.9.6\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C570296-8840-4539-A8A9-95B5F8D73D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20610" windowHeight="11640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sciences" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,20 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Complements!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sciences!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="114210" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -974,25 +993,25 @@
     <t>pencil-square-o</t>
   </si>
   <si>
-    <t xml:space="preserve">	«التفسير الوسيط...» {البقرة:61-74}</t>
-  </si>
-  <si>
     <t>https://app.box.com/s/u6iirgd1dfa7rb2h7ev2ueg71lt5vo9v</t>
   </si>
   <si>
     <t>طبعة @ 2023/05/24 م - 1444/11/04 هـ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	«التفسير الوسيط...» {البقرة: 61-74}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1157,6 +1176,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1203,7 +1230,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1235,9 +1262,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1269,6 +1314,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1444,7 +1507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1454,7 +1517,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" customWidth="1"/>
@@ -1464,7 +1527,7 @@
     <col min="10" max="13" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
@@ -1505,7 +1568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1547,7 +1610,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1589,7 +1652,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1613,25 +1676,25 @@
         <v>315</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>313</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1673,7 +1736,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1715,7 +1778,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1757,7 +1820,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1799,7 +1862,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1841,7 +1904,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1883,7 +1946,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -1925,7 +1988,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -1967,7 +2030,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -2009,7 +2072,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -2051,7 +2114,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -2093,7 +2156,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -2135,7 +2198,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -2177,7 +2240,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -2219,7 +2282,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -2261,7 +2324,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -2303,7 +2366,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -2345,7 +2408,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -2387,7 +2450,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -2429,7 +2492,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -2471,7 +2534,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -2513,7 +2576,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -2555,7 +2618,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -2597,7 +2660,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -2639,7 +2702,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -2681,7 +2744,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -2723,7 +2786,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -2765,7 +2828,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -2807,7 +2870,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -2849,7 +2912,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -2891,7 +2954,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -2933,7 +2996,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="11">
         <v>35</v>
       </c>
@@ -2975,7 +3038,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -3017,7 +3080,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -3059,7 +3122,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <v>38</v>
       </c>
@@ -3101,7 +3164,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
         <v>39</v>
       </c>
@@ -3143,7 +3206,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
         <v>40</v>
       </c>
@@ -3185,7 +3248,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="11">
         <v>41</v>
       </c>
@@ -3227,7 +3290,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="11">
         <v>42</v>
       </c>
@@ -3269,7 +3332,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="11">
         <v>43</v>
       </c>
@@ -3311,7 +3374,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="11">
         <v>44</v>
       </c>
@@ -3353,7 +3416,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="11">
         <v>45</v>
       </c>
@@ -3395,7 +3458,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="11">
         <v>46</v>
       </c>
@@ -3437,7 +3500,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="11">
         <v>47</v>
       </c>
@@ -3479,7 +3542,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="11">
         <v>48</v>
       </c>
@@ -3521,7 +3584,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="11">
         <v>49</v>
       </c>
@@ -3563,7 +3626,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="11">
         <v>50</v>
       </c>
@@ -3605,7 +3668,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="11">
         <v>51</v>
       </c>
@@ -3647,7 +3710,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="11">
         <v>52</v>
       </c>
@@ -3689,7 +3752,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="11">
         <v>53</v>
       </c>
@@ -3731,7 +3794,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="11">
         <v>54</v>
       </c>
@@ -3773,7 +3836,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="11">
         <v>55</v>
       </c>
@@ -3815,7 +3878,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="11">
         <v>56</v>
       </c>
@@ -3857,7 +3920,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="11">
         <v>57</v>
       </c>
@@ -3899,7 +3962,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="11">
         <v>58</v>
       </c>
@@ -3941,7 +4004,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="11">
         <v>59</v>
       </c>
@@ -3965,7 +4028,7 @@
         <v>301</v>
       </c>
       <c r="H60" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>229</v>
@@ -3983,7 +4046,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="11">
         <v>60</v>
       </c>
@@ -4025,7 +4088,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="11">
         <v>61</v>
       </c>
@@ -4067,7 +4130,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="11">
         <v>62</v>
       </c>
@@ -4109,7 +4172,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="11">
         <v>63</v>
       </c>
@@ -4151,7 +4214,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="11">
         <v>64</v>
       </c>
@@ -4193,7 +4256,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="11">
         <v>65</v>
       </c>
@@ -4235,7 +4298,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="11">
         <v>66</v>
       </c>
@@ -4277,7 +4340,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="11">
         <v>67</v>
       </c>
@@ -4319,7 +4382,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="11">
         <v>68</v>
       </c>
@@ -4361,7 +4424,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="13">
         <f>SUBTOTAL(2,A2:A69)</f>
         <v>68</v>
@@ -4372,25 +4435,25 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M69">
-    <sortState ref="A2:L57">
+  <autoFilter ref="A1:M69" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L57">
       <sortCondition ref="A1:A57"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J64" r:id="rId1"/>
-    <hyperlink ref="K64" r:id="rId2"/>
-    <hyperlink ref="L64" r:id="rId3"/>
-    <hyperlink ref="M64" r:id="rId4"/>
-    <hyperlink ref="M5" r:id="rId5"/>
-    <hyperlink ref="L5" r:id="rId6"/>
-    <hyperlink ref="K5" r:id="rId7"/>
-    <hyperlink ref="J5" r:id="rId8"/>
-    <hyperlink ref="J4" r:id="rId9"/>
-    <hyperlink ref="K4" r:id="rId10"/>
-    <hyperlink ref="L4" r:id="rId11"/>
-    <hyperlink ref="M4" r:id="rId12"/>
+    <hyperlink ref="J64" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K64" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="L64" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="M64" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="M5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="L5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="K5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J4" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="K4" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="L4" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="M4" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -4403,7 +4466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4411,13 +4474,13 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="24.7109375" customWidth="1"/>
     <col min="6" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>284</v>
       </c>
@@ -4440,7 +4503,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>287</v>
       </c>
@@ -4457,21 +4520,21 @@
         <v>285</v>
       </c>
       <c r="F2" s="16">
-        <f ca="1">DATEVALUE(MID(Sciences!$H60,(FIND("طبعة @ ",Sciences!$H60)+7),10))</f>
+        <f>DATEVALUE(MID(Sciences!$H60,(FIND("طبعة @ ",Sciences!$H60)+7),10))</f>
         <v>45070</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>288</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="18" t="s">
         <v>307</v>
       </c>
@@ -4479,18 +4542,18 @@
         <v>307</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C6" s="18" t="s">
         <v>308</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G2"/>
+  <autoFilter ref="A1:G2" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="B2" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>
